--- a/medicine/Nettoyage et hygiène/Zanussi_(entreprise)/Zanussi_(entreprise).xlsx
+++ b/medicine/Nettoyage et hygiène/Zanussi_(entreprise)/Zanussi_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La société Zanussi (en italien : /ˈdzanus.si/) était une entreprise italienne fondée en 1916, spécialisée dans la fabrication de matériel électroménager. Elle a été rachetée en 1984 par le groupe suédois Electrolux.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La société a été créée par Antonio Zanussi à Pordenone, dans le Nord-Est de l'Italie, au nord de Venise, en 1916. En 1946, elle sera l'objet d'une profonde transformation d'entreprise familiale en société industrielle leader dans le domaine de l'électroménager grâce à un des enfants du fondateur, Lino Zanussi.
 À partir de 1951, avec un potentiel de plus de 300 salariés, la société se diversifie dans la fabrication de fours à gaz, électriques et à double alimentation. Avec la disponibilité croissante des bouteilles de gaz pour les particuliers et l'augmentation de la popularité de ce système de cuisson, Zanussi devient le plus grand producteur européen de ce type d'appareils[réf. nécessaire].
